--- a/release-tracking/release-tracking.xlsx
+++ b/release-tracking/release-tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="160" windowWidth="29180" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="160" windowWidth="29180" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Release</t>
   </si>
@@ -56,13 +56,25 @@
   </si>
   <si>
     <t>Fixture Dataload Files</t>
+  </si>
+  <si>
+    <t>Date/Time on Dev</t>
+  </si>
+  <si>
+    <t>Date/Time on Test</t>
+  </si>
+  <si>
+    <t>Date/Time on Prod</t>
+  </si>
+  <si>
+    <t>Impacted release on Prod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +86,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,10 +124,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,8 +137,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -496,40 +529,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/release-tracking/release-tracking.xlsx
+++ b/release-tracking/release-tracking.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="160" windowWidth="29180" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="280" yWindow="160" windowWidth="29180" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="1" r:id="rId1"/>
-    <sheet name="Plateform and Library Upgrades" sheetId="3" r:id="rId2"/>
+    <sheet name="Platform and Library Upgrades" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/release-tracking/release-tracking.xlsx
+++ b/release-tracking/release-tracking.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="160" windowWidth="29180" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="3020" yWindow="-19360" windowWidth="31080" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="1" r:id="rId1"/>
     <sheet name="Platform and Library Upgrades" sheetId="3" r:id="rId2"/>
+    <sheet name="Fixtures" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Release</t>
   </si>
@@ -68,13 +69,67 @@
   </si>
   <si>
     <t>Impacted release on Prod</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>core fixtures</t>
+  </si>
+  <si>
+    <t>credit_trade_statuses </t>
+  </si>
+  <si>
+    <t>credit_trade_types </t>
+  </si>
+  <si>
+    <t>organization_actions_types </t>
+  </si>
+  <si>
+    <t>organization_government </t>
+  </si>
+  <si>
+    <t>organization_statuses </t>
+  </si>
+  <si>
+    <t>organization_types </t>
+  </si>
+  <si>
+    <t>organization_fuel_suppliers </t>
+  </si>
+  <si>
+    <t>organization_balance_gov </t>
+  </si>
+  <si>
+    <t>credittradezeroreason</t>
+  </si>
+  <si>
+    <t>tfrs internal users</t>
+  </si>
+  <si>
+    <t>test data</t>
+  </si>
+  <si>
+    <t>test_credit_trades</t>
+  </si>
+  <si>
+    <t>test_organization_balances</t>
+  </si>
+  <si>
+    <t>test users</t>
+  </si>
+  <si>
+    <t>test_users</t>
+  </si>
+  <si>
+    <t>core fixtures and ftrs internal users</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +161,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,12 +194,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,10 +212,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,7 +559,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -516,9 +601,22 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4">
+        <v>43207.625</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43207.645833333336</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -587,4 +685,104 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/release-tracking/release-tracking.xlsx
+++ b/release-tracking/release-tracking.xlsx
@@ -194,8 +194,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,13 +222,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,7 +563,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -606,6 +610,9 @@
       </c>
       <c r="C2" s="4">
         <v>43207.645833333336</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43208.645833333336</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>

--- a/release-tracking/release-tracking.xlsx
+++ b/release-tracking/release-tracking.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="-19360" windowWidth="31080" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33200" windowHeight="17440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="1" r:id="rId1"/>
-    <sheet name="Platform and Library Upgrades" sheetId="3" r:id="rId2"/>
-    <sheet name="Fixtures" sheetId="4" r:id="rId3"/>
+    <sheet name="Fixtures" sheetId="4" r:id="rId2"/>
+    <sheet name="Platform and Library Upgrades" sheetId="3" r:id="rId3"/>
+    <sheet name="ProdDBBackup" sheetId="5" r:id="rId4"/>
+    <sheet name="ISSUESPrs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>Release</t>
   </si>
@@ -44,15 +46,6 @@
     <t>Frontend Nodejs Upgrades</t>
   </si>
   <si>
-    <t>Branch Creation Date/Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Deployment Date/Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod Deployment Date/Time </t>
-  </si>
-  <si>
     <t>Migration Files</t>
   </si>
   <si>
@@ -123,13 +116,193 @@
   </si>
   <si>
     <t>core fixtures and ftrs internal users</t>
+  </si>
+  <si>
+    <t>Apr 24 2018</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>CNS Upgrade, New volume provisioning will be disabled during the change but existing volumes aren't expected to have issues.</t>
+  </si>
+  <si>
+    <t>SQLDump</t>
+  </si>
+  <si>
+    <t>Base Backup</t>
+  </si>
+  <si>
+    <t>frs-20180423-1345.gz</t>
+  </si>
+  <si>
+    <t>tfrs-prod-20180423-1550.tar</t>
+  </si>
+  <si>
+    <t>PIT Backup</t>
+  </si>
+  <si>
+    <t>000000010000000000000004.00000028.backup</t>
+  </si>
+  <si>
+    <t>Test Deployment #</t>
+  </si>
+  <si>
+    <t>V0.1.0.1</t>
+  </si>
+  <si>
+    <t>SubRelease</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Pull Request</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>#236</t>
+  </si>
+  <si>
+    <t>Deployed on Test</t>
+  </si>
+  <si>
+    <t>Deployed on Prod</t>
+  </si>
+  <si>
+    <t>V0.2.0</t>
+  </si>
+  <si>
+    <t>Deployed on Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comments</t>
+  </si>
+  <si>
+    <t>move openshift folder</t>
+  </si>
+  <si>
+    <t>will do</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>V0.1.0.2</t>
+  </si>
+  <si>
+    <t>client-39 tfrs-46</t>
+  </si>
+  <si>
+    <t>Deployment #</t>
+  </si>
+  <si>
+    <t>#240</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client-39 tfrs-47 </t>
+  </si>
+  <si>
+    <t>client-40 tfrs-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> was the first release deployed, but the resouces limits are adjusted after that.</t>
+  </si>
+  <si>
+    <t>compliance_periods.json</t>
+  </si>
+  <si>
+    <t>0005_auto_20180424_1445.py
+0006_auto_20180424_1527.py
+0007_credittradehistory_compliance_period.py</t>
+  </si>
+  <si>
+    <t>client-50 tfrs-87</t>
+  </si>
+  <si>
+    <t>Branch Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client-48 tfrs-85 </t>
+  </si>
+  <si>
+    <t>client-49 tfrs-86</t>
+  </si>
+  <si>
+    <t>client-47 tfrs-85</t>
+  </si>
+  <si>
+    <t>V0.1.0.3</t>
+  </si>
+  <si>
+    <t>#245</t>
+  </si>
+  <si>
+    <t>Merge to Master</t>
+  </si>
+  <si>
+    <t>client-41 tfrs-49</t>
+  </si>
+  <si>
+    <t>Test Deployment Time</t>
+  </si>
+  <si>
+    <t>Prod Deployment Time</t>
+  </si>
+  <si>
+    <t>Prod Deployment #</t>
+  </si>
+  <si>
+    <t>client-51 tfrs-88</t>
+  </si>
+  <si>
+    <t>client-47 tfrs-73</t>
+  </si>
+  <si>
+    <t>client-46 tfrs-72</t>
+  </si>
+  <si>
+    <t>V0.1.0.4</t>
+  </si>
+  <si>
+    <t>#262</t>
+  </si>
+  <si>
+    <t>tfrs-50</t>
+  </si>
+  <si>
+    <t>tfrs-89</t>
+  </si>
+  <si>
+    <t>tfrs-74</t>
+  </si>
+  <si>
+    <t>test_tfrs_users_MichaelRensing</t>
+  </si>
+  <si>
+    <t>test_tfrs_users</t>
+  </si>
+  <si>
+    <t>organization_vancouver_island_propane_services.json
+test_tfrs_users_MichaelRensing.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,19 +335,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="HelveticaNeue"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF24292E"/>
-      <name val="Consolas"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,8 +376,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -204,8 +402,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,23 +442,107 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,66 +872,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.83203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="45.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" ht="30">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="22">
         <v>43207.625</v>
       </c>
-      <c r="C2" s="4">
+      <c r="E2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="22">
         <v>43207.645833333336</v>
       </c>
-      <c r="D2" s="4">
+      <c r="I2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="22">
         <v>43208.645833333336</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="K2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="22">
+        <v>43215.409722222219</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="22">
+        <v>43215.427083333336</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" ht="52" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="22">
+        <v>43216.385416666664</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="22">
+        <v>43216.388888888891</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="22">
+        <v>43216.666666666664</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="22">
+        <v>43216.6875</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="22">
+        <v>43221.416666666664</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="40" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="22">
+        <v>43221.635416666664</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="22">
+        <v>43221.642361111109</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="22">
+        <v>43221.649305555555</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -634,53 +1454,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -696,94 +1556,423 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="7"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="7"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9">
+        <v>20180423</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="28.1640625" style="10" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="10"/>
+    <col min="5" max="5" width="23.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="10" customWidth="1"/>
+    <col min="7" max="9" width="27.5" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10">
+        <v>230</v>
+      </c>
+      <c r="C2" s="10">
+        <v>574</v>
+      </c>
+      <c r="D2" s="26">
+        <v>232</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="10">
+        <v>231</v>
+      </c>
+      <c r="C3" s="10">
+        <v>575</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="10">
+        <v>233</v>
+      </c>
+      <c r="C4" s="10">
+        <v>578</v>
+      </c>
+      <c r="D4" s="10">
+        <v>234</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="10">
+        <v>231</v>
+      </c>
+      <c r="C6" s="10">
+        <v>575</v>
+      </c>
+      <c r="D6" s="10">
+        <v>235</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10">
+        <v>229</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10">
+        <v>237</v>
+      </c>
+      <c r="C12" s="10">
+        <v>579</v>
+      </c>
+      <c r="D12" s="26">
+        <v>239</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="10">
+        <v>238</v>
+      </c>
+      <c r="C13" s="10">
+        <v>581</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10">
+        <v>229</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/release-tracking/release-tracking.xlsx
+++ b/release-tracking/release-tracking.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>Release</t>
   </si>
@@ -296,6 +296,27 @@
   <si>
     <t>organization_vancouver_island_propane_services.json
 test_tfrs_users_MichaelRensing.json</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2018-05-03 #267</t>
+  </si>
+  <si>
+    <t>V0.1.0.5</t>
+  </si>
+  <si>
+    <t>#278</t>
+  </si>
+  <si>
+    <t>tfrs-52</t>
+  </si>
+  <si>
+    <t>tfrs-91</t>
+  </si>
+  <si>
+    <t>Merged to Develop</t>
   </si>
 </sst>
 </file>
@@ -392,7 +413,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -432,8 +453,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,8 +528,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -524,6 +555,8 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -543,6 +576,8 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -872,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -884,19 +919,20 @@
     <col min="2" max="2" width="10.83203125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.83203125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="45.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="10"/>
+    <col min="11" max="11" width="27" style="10" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="26" customWidth="1"/>
+    <col min="14" max="14" width="45.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -930,14 +966,17 @@
       <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:14" ht="30">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -971,14 +1010,17 @@
       <c r="K2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
+    <row r="3" spans="1:14" ht="24" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="19" t="s">
         <v>41</v>
@@ -1008,14 +1050,17 @@
         <v>13</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="52" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:14" ht="75" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="19" t="s">
         <v>57</v>
@@ -1047,12 +1092,15 @@
       <c r="K4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="21"/>
       <c r="B5" s="19" t="s">
         <v>72</v>
@@ -1082,14 +1130,17 @@
         <v>43221.416666666664</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" ht="40" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" ht="67" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="19" t="s">
         <v>82</v>
@@ -1119,29 +1170,57 @@
         <v>43221.649305555555</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="L6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22">
+        <v>43228.666666666664</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="22">
+        <v>43228.6875</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="21"/>
       <c r="B8" s="19"/>
       <c r="C8" s="21"/>
@@ -1153,10 +1232,11 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="24"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="21"/>
       <c r="B9" s="19"/>
       <c r="C9" s="21"/>
@@ -1168,10 +1248,11 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="24"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="21"/>
       <c r="B10" s="19"/>
       <c r="C10" s="21"/>
@@ -1183,10 +1264,11 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="24"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="21"/>
       <c r="B11" s="19"/>
       <c r="C11" s="21"/>
@@ -1198,10 +1280,11 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="24"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="21"/>
       <c r="B12" s="19"/>
       <c r="C12" s="21"/>
@@ -1213,10 +1296,11 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12" s="24"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="21"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -1228,10 +1312,11 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="24"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="21"/>
       <c r="B14" s="19"/>
       <c r="C14" s="21"/>
@@ -1243,10 +1328,11 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="24"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="21"/>
       <c r="B15" s="19"/>
       <c r="C15" s="21"/>
@@ -1258,10 +1344,11 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L15" s="24"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="23"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="21"/>
       <c r="B16" s="19"/>
       <c r="C16" s="21"/>
@@ -1273,10 +1360,11 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16" s="24"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="21"/>
       <c r="B17" s="19"/>
       <c r="C17" s="21"/>
@@ -1288,10 +1376,11 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="21"/>
       <c r="B18" s="19"/>
       <c r="C18" s="21"/>
@@ -1303,10 +1392,11 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="21"/>
       <c r="B19" s="19"/>
       <c r="C19" s="21"/>
@@ -1318,10 +1408,11 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="21"/>
       <c r="B20" s="19"/>
       <c r="C20" s="21"/>
@@ -1333,10 +1424,11 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="23"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="21"/>
       <c r="B21" s="19"/>
       <c r="C21" s="21"/>
@@ -1348,10 +1440,11 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="21"/>
       <c r="B22" s="19"/>
       <c r="C22" s="21"/>
@@ -1363,10 +1456,11 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="21"/>
       <c r="B23" s="19"/>
       <c r="C23" s="21"/>
@@ -1378,10 +1472,11 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="21"/>
       <c r="B24" s="19"/>
       <c r="C24" s="21"/>
@@ -1393,10 +1488,11 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="21"/>
       <c r="B25" s="19"/>
       <c r="C25" s="21"/>
@@ -1408,10 +1504,11 @@
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="21"/>
       <c r="B26" s="19"/>
       <c r="C26" s="21"/>
@@ -1423,10 +1520,11 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="23"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="21"/>
       <c r="B27" s="19"/>
       <c r="C27" s="21"/>
@@ -1438,8 +1536,9 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1608,11 +1707,11 @@
       <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="10" t="s">
         <v>1</v>
       </c>
@@ -1839,16 +1938,16 @@
       <c r="C2" s="10">
         <v>574</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="28">
         <v>232</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="28" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -1862,10 +1961,10 @@
       <c r="C3" s="10">
         <v>575</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
@@ -1925,14 +2024,14 @@
       <c r="C12" s="10">
         <v>579</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="28">
         <v>239</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="26" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1943,10 +2042,10 @@
       <c r="C13" s="10">
         <v>581</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="10" t="s">
